--- a/离线语言_协议/DOCK Voice Word List 0609_25.xlsx
+++ b/离线语言_协议/DOCK Voice Word List 0609_25.xlsx
@@ -16,76 +16,205 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
+    <t>Lower foot</t>
+  </si>
+  <si>
+    <t>MASSAGE OFF</t>
+  </si>
+  <si>
+    <t>LIGHT OFF</t>
+  </si>
+  <si>
+    <t>LIGHT ON</t>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello Ergo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello Bed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOCK Voice Word</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zero G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wake up offline voice 8s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Run to Zero G position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Run to the flat position and turn off the vibrator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Run to Favorite preset position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raise-foot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raise the foot for 3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Run to TV preset position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raise the head for 3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raise the head and foot at the same time for 6s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stop the motors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lower the head for 3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lower the foot for 3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turn off the underbed light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turn off the all vibrators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turn on the underbed light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Questions </t>
+  </si>
+  <si>
+    <t>Massage Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massage High </t>
+  </si>
+  <si>
+    <t>Massage Medium</t>
+  </si>
+  <si>
+    <t>Turns on low intensity massage (stays on for 10 mins)</t>
+  </si>
+  <si>
+    <t>Turns on medium intensity massage (stays on for 10 mins)</t>
+  </si>
+  <si>
+    <t>Turns on High intensity massage (stays on for 10 mins)</t>
+  </si>
+  <si>
+    <t>Hello Ergo 唤醒离线语音 8 秒</t>
+  </si>
+  <si>
+    <t>Hello Bed 唤醒离线语音 8 秒</t>
+  </si>
+  <si>
+    <t>抬头 抬头 3 秒</t>
+  </si>
+  <si>
+    <t>Hello Head 降低头部 3 秒</t>
+  </si>
+  <si>
+    <t>抬脚 抬脚 3 秒</t>
+  </si>
+  <si>
+    <t>Hello Bed 降低脚 3 秒</t>
+  </si>
+  <si>
+    <t>MASSAGE OFF 关闭所有震动器</t>
+  </si>
+  <si>
+    <t>All Up 抬头 抬脚同时保持 6 秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>STOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">STOP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>停止电机</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zero G 运行至零重力位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flat Flat Preset 运行至平躺位置并关闭震动器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flat Preset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Favorite preset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Favorite Preset 运行至收藏预设位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Tv preset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tv Preset 运行至电视预设位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Raise-head</t>
-  </si>
-  <si>
-    <t>Lower foot</t>
-  </si>
-  <si>
-    <t>MASSAGE OFF</t>
-  </si>
-  <si>
-    <t>LIGHT OFF</t>
-  </si>
-  <si>
-    <t>LIGHT ON</t>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hello Ergo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hello Bed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOCK Voice Word</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Word</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zero G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All Up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wake up offline voice 8s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Run to Zero G position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Run to the flat position and turn off the vibrator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Run to Favorite preset position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Raise-foot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -93,107 +222,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Raise the foot for 3s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Run to TV preset position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Raise the head for 3s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Raise the head and foot at the same time for 6s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stop the motors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lower the head for 3s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lower the foot for 3s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turn off the underbed light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turn off the all vibrators</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turn on the underbed light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flat Preset</t>
-  </si>
-  <si>
-    <t>Favorite preset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Questions </t>
-  </si>
-  <si>
-    <t>Massage Low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Massage High </t>
-  </si>
-  <si>
-    <t>Massage Medium</t>
-  </si>
-  <si>
-    <t>Turns on low intensity massage (stays on for 10 mins)</t>
-  </si>
-  <si>
-    <t>Turns on medium intensity massage (stays on for 10 mins)</t>
-  </si>
-  <si>
-    <t>Turns on High intensity massage (stays on for 10 mins)</t>
-  </si>
-  <si>
-    <t>Hello Ergo 唤醒离线语音 8 秒</t>
-  </si>
-  <si>
-    <t>Hello Bed 唤醒离线语音 8 秒</t>
-  </si>
-  <si>
-    <t>All Up 抬头 抬脚同时保持 6 秒</t>
-  </si>
-  <si>
-    <t>Zero G 运行至零重力位置</t>
-  </si>
-  <si>
-    <t>Flat Flat Preset 运行至平躺位置并关闭震动器</t>
-  </si>
-  <si>
-    <t>Favorite Preset 运行至收藏预设位置</t>
-  </si>
-  <si>
-    <t>Tv Preset 运行至电视预设位置</t>
-  </si>
-  <si>
-    <t>抬头 抬头 3 秒</t>
-  </si>
-  <si>
-    <t>Hello Head 降低头部 3 秒</t>
-  </si>
-  <si>
-    <t>抬脚 抬脚 3 秒</t>
-  </si>
-  <si>
-    <t>Hello Bed 降低脚 3 秒</t>
+    <t>LIGHT OFF 关闭床底灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIGHT ON 打开床底灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Massage Medium </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开启中强度按摩（持续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Massage Low 开启低强度按摩（持续 10 分钟）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -227,63 +299,7 @@
       </rPr>
       <t>分钟）</t>
     </r>
-  </si>
-  <si>
-    <t>MASSAGE OFF 关闭所有震动器</t>
-  </si>
-  <si>
-    <t>LIGHT OFF 关闭床底灯</t>
-  </si>
-  <si>
-    <t>LIGHT ON 打开床底灯</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">STOP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>停止电机</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Massage Medium </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开启中强度按摩（持续</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> 10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分钟）</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -752,7 +768,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -767,12 +783,12 @@
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -780,13 +796,13 @@
     </row>
     <row r="2" spans="1:7" ht="15">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
@@ -797,13 +813,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="1"/>
@@ -814,13 +830,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="1"/>
@@ -831,13 +847,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="1"/>
@@ -848,13 +864,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="1"/>
@@ -865,13 +881,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="1"/>
@@ -890,13 +906,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="1"/>
@@ -915,13 +931,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="1"/>
@@ -932,13 +948,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="1"/>
@@ -949,13 +965,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="1"/>
@@ -966,13 +982,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="1"/>
@@ -983,13 +999,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="1"/>
@@ -1000,13 +1016,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="1"/>
@@ -1025,13 +1041,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="1"/>
@@ -1042,13 +1058,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="1"/>
@@ -1059,13 +1075,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="1"/>
@@ -1084,13 +1100,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="1"/>
@@ -1101,13 +1117,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="1"/>
@@ -1118,13 +1134,13 @@
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="1"/>
